--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,21 +467,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Strong wireless interference</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,7 +491,67 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13-22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Backward obstacle avoidance unavailable</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5-8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem5/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,21 +467,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Strong wireless interference</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,67 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13-22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Backward obstacle avoidance unavailable</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5-8</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Event</t>
         </is>
       </c>
     </row>
